--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-filtered-properties.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-filtered-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t xml:space="preserve">SAMPLE</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">/DEFAULT/DEFAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">STORAGE</t>
@@ -119,7 +122,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -188,12 +191,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +235,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,7 +272,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,10 +282,6 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -312,13 +305,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.5"/>
@@ -326,10 +319,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="42.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -337,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -354,7 +346,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -382,12 +374,11 @@
       <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -403,12 +394,11 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="b">
-        <v>0</v>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,7 +406,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -429,11 +419,11 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -462,112 +452,112 @@
         <v>11</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="12" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="10" t="n">
         <v>9999</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="J12" s="10" t="n">
         <v>1111</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>2</v>
